--- a/list_prompts.xlsx
+++ b/list_prompts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasto\Desktop\учёба\ТИВ\task\tiv_gen_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,18 +39,6 @@
     <t>Сгенерируй диаграмму классов для информационной системы "Ветеринарная клиника"</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму классов для информационной системы "Онлайн-магазин одежды". 1. Класс - Продукт. Атрибуты: название, стоимость, размер, цвет, описание 2. Класс - Заказ. Атрибуты: дата заказа, статус, общая стоимость 3. Класс - Пользователь. Атрибуты: имя, адрес доставки, контактная информация 4. Класс - Корзина. Атрибуты: список продуктов, сумма заказа 5. Класс - Оплата. Атрибуты: способ оплаты, информация о платеже 6. Класс - Доставка. Атрибуты: адрес доставки, статус доставки 7. Класс - Категория. Атрибуты: имя категории, описание 8. Класс - Производитель. Атрибуты: название, страна, специализация 9. Класс - Отзывы. Атрибуты: оценка, комментарий, дата 10. Класс - Акции и скидки. Атрибуты: описание акции, сроки, условия</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму классов для информационной системы "Ветеринарная клиника". 1. Класс - Животное. Атрибуты: кличка, вид, возраст, владелец. 2. Класс - Врач. Атрибуты: имя, специализация, график работы 3. Класс - Пациент. Атрибуты: животное, дата приема, диагноз  4. Класс - Специализация. Атрибуты: название специализации, описание 5. Класс - Процедуры и услуги. Атрибуты: название, описание, стоимость.  6. Класс - Запись. Атрибуты: пациент, врач, дата, вид процедуры. 7. Класс - Лечение. Атрибуты: название лечения, рецепт, дозировка. 8. Класс - Отзывы и рейтинг. Атрибуты: оценка, отзыв, дата.</t>
-  </si>
-  <si>
-    <t>Создайте диаграмму классов для информационной системы "Онлайн-магазин одежды". Включите основные классы: продукты, заказы, пользователи. Покажите связь между классами заказов и пользователями, учитывая, что каждый пользователь может иметь несколько заказов. Укажите основные атрибуты каждого класса, такие как название товара, стоимость, дата заказа и другие соответствующие атрибуты. Дополнительно укажите, что каждый заказ может содержать один или несколько продуктов.</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму классов для информационной системы "Ветеринарная клиника". Создайте диаграмму классов для информационной системы "Ветеринарная клиника". Опишите основные классы: 'Животные', 'Врачи и персонал', 'Услуги и процедуры'. Укажите основные атрибуты и методы для каждого класса. Опишите особенности, такие как специфические характеристики каждого класса, общие особенности между классами, их взаимосвязи, а также другие особенности, которые следует учесть при генерации диаграммы классов для данной информационной системы.</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму use-case</t>
   </si>
   <si>
@@ -60,27 +48,12 @@
     <t>Сгенерируй диаграмму use-case на языке UML</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму use-case на языке UML. Для отражения use-case на диаграмме используются: рамки системы — прямоугольник с названием в верхней части и эллипсами (прецедентами) внутри. актёр — стилизованный человечек, обозначающий набор ролей пользователя. прецедент — эллипс с надписью, обозначающий выполняемые системой действия. Имя прецедента связано с непрерывным (атомарным) сценарием — конкретной последовательностью действий, иллюстрирующей поведение.</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму use-case для информационной системы "Онлайн-магазин одежды"</t>
   </si>
   <si>
     <t>Сгенерируй диаграмму use-case для информационной системы "Ветеринарная клиника"</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму use-case для информационной системы "Онлайн-магазин одежды". Система должна включать основные функции, такие как просмотр каталога товаров, добавление товаров в корзину, оформление заказа, аутентификация пользователей, управление аккаунтом и обработка платежей. Определите основных актеров системы и их взаимодействие с функциональными блоками. Учтите различные сценарии использования, такие как поиск товаров, оформление заказа как гость или зарегистрированный пользователь, отслеживание статуса заказа и возврат товаров. Опишите ключевые шаги и потоки данных в каждом сценарии использования.</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму use-case для информационной системы "Ветеринарная клиника". Система должна поддерживать основные функции, такие как запись на прием, учет медицинских карт пациентов, выписка рецептов, администрирование расписания врачей и финансовый учет. Представьте основные актеры системы и их взаимодействие с основными функциональными блоками. Учтите основные сценарии использования, такие как прием пациента, выписка рецепта, и формирование отчетов для администрирования. Опишите основные шаги и потоки данных в каждом случае использования.</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму use-case для информационной системы "Онлайн-магазин одежды", которая будет включать следующие сценарии использования: 1. Регистрация нового пользователя: включает ввод имени, адреса, контактных данных и создание пароля. 2. Вход в аккаунт: пользователь вводит свои данные для авторизации. 3. Поиск товаров: пользователь может искать товары по названию, категории, бренду или другим параметрам. 4. Просмотр товара: после поиска товара пользователь может просмотреть детальную информацию о нем, включая фотографии, описание, размер, цвет и стоимость. 5. Добавление товара в корзину: пользователь добавляет выбранный товар в корзину для дальнейшего оформления заказа. 6. Оформление заказа: пользователь выбирает способ доставки и оплаты, вводит контактные данные и подтверждает заказ. 7. Изменение или удаление товаров из корзины: пользователь может изменять количество товаров или удалять их из корзины. 8. История заказов: пользователь может просматривать историю своих заказов. 9. Личный кабинет пользователя: в личном кабинете пользователь может редактировать свои данные, управлять своими заказами, просматривать историю заказов и оставлять отзывы о товарах. 10. Обратная связь: пользователь может оставлять отзывы о приобретенных товарах и задавать вопросы службе поддержки. 11. Подписка на рассылку: пользователь подписывается на рассылку новостей и акций магазина.</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму use-case для информационной системы "Ветеринарная клиника". Диаграмма должна охватывать все основные сценарии использования системы, включая: 1. Регистрацию новых клиентов и животных. 2. Запись на прием к ветеринару. 3. Управление информацией о пациентах (история болезни, назначения, результаты анализов). 4. Ведение базы данных о животных (идентификационные данные, информация о владельце, медицинские данные). 5. Формирование отчетов о работе клиники (статистика посещений, финансовые отчеты, анализ эффективности работы сотрудников). 6. Обеспечение безопасности данных и конфиденциальности информации о клиентах. 7. Возможность удаленного доступа к системе для сотрудников клиники с разных устройств и в разных браузерах. 8. Интеграцию с другими системами и сервисами (например, с системами оплаты или электронной почтой). 9. Возможность обновления и расширения функционала системы в будущем.</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму потоков данных</t>
   </si>
   <si>
@@ -90,27 +63,12 @@
     <t>Сгенерируй диаграмму DFD на основе методологии SADT</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму DFD. В DFD входят процессы: круги или прямоугольники, представляющие операции в системе; потоков данных: стрелки, показывающие перемещение данных между процессами, хранилищами и внешними сущностями; хранилища данных: параллелограммы, отображающие места хранения данных в системе; внешние сущности: прямоугольники, представляющие внешние источники/назначения данных для систем</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму DFD для информационной системы "Онлайн-магазин одежды"</t>
   </si>
   <si>
     <t>Сгенерируй диаграмму DFD для информационной системы "Ветеринарная клиника"</t>
   </si>
   <si>
-    <t>Создайте DFD для информационной системы "Онлайн-магазин одежды". Включите в диаграмму функциональные блоки, описывающие процессы системы, а также укажите стрелки (потоки данных) между этими функциями. Также необходимо указать взаимодействие системы с внешними сущностями</t>
-  </si>
-  <si>
-    <t>Создайте DFD для информационной системы "Ветеринарная клиника". Включите в диаграмму функциональные блоки, описывающие процессы системы, а также укажите стрелки (потоки данных) между этими функциями. Также необходимо указать взаимодействие системы с внешними сущностями</t>
-  </si>
-  <si>
-    <t>Создайте диаграмму DFD для информационной системы "Онлайн-магазин одежды". Необходимо включить основные функции системы: оформление заказа, управление складом, обработка платежей, учет клиентской информации и взаимодействие с поставщиками. Укажите потоки данных между этими функциями, включая информацию о заказах, товарах, клиентах и финансовых транзакциях. Также укажите на взаимодействие системы с внешними сущностями: клиенты и поставщики, и на потоки данных между ними и системой</t>
-  </si>
-  <si>
-    <t>Создайте диаграмму потоков данных (DFD) для информационной системы "Ветеринарная клиника". Включите основные функции системы: запись на прием, ведение медицинских карт, назначение лечения, управление запасами лекарств и оборудования, обработка платежей. Опишите потоки данных между этими функциями, включая информацию о пациентах, медицинских услугах, лекарствах, финансовых транзакциях и связи с внешними сторонами, такими как клиенты и поставщики</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму "как есть" и "как будет" на основе методологии функциональнного моделирования</t>
   </si>
   <si>
@@ -120,27 +78,12 @@
     <t>Сгенерируй диаграмму IDEF0 на основе методологии SADT</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму IDEF0. В IDEF0 входят блоки функций: прямоугольники, отображающие функциональные элементы системы; стрелки и потоки: обозначают потоки данных или управления между блоками функций. У каждого функционального блока есть входящие стрелки, которые ставят задачу, исходящие, которые показывают результат деятельности, стрелки контроля, показывают управляющие ресурсы, и стрелки механизмов, показывают, что необходимо для работы.</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму IDEF0 для информационной системы "Онлайн-магазин одежды"</t>
   </si>
   <si>
     <t>Сгенерируй диаграмму IDEF0 для инфомрационной системы "Ветеринарная клиника"</t>
   </si>
   <si>
-    <t>Сгенерируй IDEF0 для информационной системы "Онлайн-магазин одежды". Опишите основные функции системы, укажите иерархию этих функций, а также связи между ними, чтобы полноценно отразить структуру и функциональность системы. Опишите что необходимо для управления и выполнения каждой функции системы</t>
-  </si>
-  <si>
-    <t>Сгенерируй IDEF0 для информационной системы "Ветеринарная клиника". Опишите основные функции системы, укажите иерархию этих функций, а также связи между ними, чтобы полноценно отразить структуру и функциональность системы. Опишите что необходимо для управления и выполнения каждой функции системы</t>
-  </si>
-  <si>
-    <t>Создайте диаграмму IDEF0 для информационной системы "Онлайн-магазин одежды". Отобразите основные функциональные блоки: управление каталогом товаров, обработка заказов, обработка платежей, управление складом, обратная связь с клиентами и обновление информации о товарах. Покажите взаимодействие между этими функциям. Укажите стрелки для выполнения процессов: клиенты, менеджеры, продавцы. Также укажите стрелки для управления процессами: закон о защите прав потребителей, закон купли-продажи</t>
-  </si>
-  <si>
-    <t>Создайте диаграмму IDEF0 для информационной системы "Ветеринарная клиника". Отобразите на диаграмме основные функциональные блоки: запись на прием, регистрация пациентов, медицинский осмотр, диагностическое тестирование, планирование лечения и обновление медицинских данных. Отобразите взаимодействие между этими функциями. Укажите необходимые стрелки для выполнения процессов: клиент, ветеринар. Также укажите стрелки для управления процессов: протокол медицинского обслуживания, санитарные стандарты.</t>
-  </si>
-  <si>
     <t>Номер</t>
   </si>
   <si>
@@ -160,6 +103,63 @@
   </si>
   <si>
     <t>IDEF0</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму классов для информационной системы "Онлайн-магазин одежды". 1. Класс - Продукт. Атрибуты: название стоимость размер цвет описание 2. Класс - Заказ. Атрибуты: дата заказа статус общая стоимость 3. Класс - Пользователь. Атрибуты: имя адрес доставки контактная информация 4. Класс - Корзина. Атрибуты: список продуктов сумма заказа 5. Класс - Оплата. Атрибуты: способ оплаты информация о платеже 6. Класс - Доставка. Атрибуты: адрес доставки статус доставки 7. Класс - Категория. Атрибуты: имя категории описание 8. Класс - Производитель. Атрибуты: название страна специализация 9. Класс - Отзывы. Атрибуты: оценка комментарий дата 10. Класс - Акции и скидки. Атрибуты: описание акции сроки условия</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму классов для информационной системы "Ветеринарная клиника". 1. Класс - Животное. Атрибуты: кличка вид возраст владелец. 2. Класс - Врач. Атрибуты: имя специализация график работы 3. Класс - Пациент. Атрибуты: животное дата приема диагноз  4. Класс - Специализация. Атрибуты: название специализации описание 5. Класс - Процедуры и услуги. Атрибуты: название описание стоимость.  6. Класс - Запись. Атрибуты: пациент врач дата вид процедуры. 7. Класс - Лечение. Атрибуты: название лечения рецепт дозировка. 8. Класс - Отзывы и рейтинг. Атрибуты: оценка отзыв дата.</t>
+  </si>
+  <si>
+    <t>Создайте диаграмму классов для информационной системы "Онлайн-магазин одежды". Включите основные классы: продукты заказы пользователи. Покажите связь между классами заказов и пользователями учитывая что каждый пользователь может иметь несколько заказов. Укажите основные атрибуты каждого класса такие как название товара стоимость дата заказа и другие соответствующие атрибуты. Дополнительно укажите что каждый заказ может содержать один или несколько продуктов.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму классов для информационной системы "Ветеринарная клиника". Создайте диаграмму классов для информационной системы "Ветеринарная клиника". Опишите основные классы: 'Животные' 'Врачи и персонал' 'Услуги и процедуры'. Укажите основные атрибуты и методы для каждого класса. Опишите особенности такие как специфические характеристики каждого класса общие особенности между классами их взаимосвязи а также другие особенности которые следует учесть при генерации диаграммы классов для данной информационной системы.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case на языке UML. Для отражения use-case на диаграмме используются: рамки системы — прямоугольник с названием в верхней части и эллипсами (прецедентами) внутри. актёр — стилизованный человечек обозначающий набор ролей пользователя. прецедент — эллипс с надписью обозначающий выполняемые системой действия. Имя прецедента связано с непрерывным (атомарным) сценарием — конкретной последовательностью действий иллюстрирующей поведение.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case для информационной системы "Онлайн-магазин одежды". Система должна включать основные функции такие как просмотр каталога товаров добавление товаров в корзину оформление заказа аутентификация пользователей управление аккаунтом и обработка платежей. Определите основных актеров системы и их взаимодействие с функциональными блоками. Учтите различные сценарии использования такие как поиск товаров оформление заказа как гость или зарегистрированный пользователь отслеживание статуса заказа и возврат товаров. Опишите ключевые шаги и потоки данных в каждом сценарии использования.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case для информационной системы "Ветеринарная клиника". Система должна поддерживать основные функции такие как запись на прием учет медицинских карт пациентов выписка рецептов администрирование расписания врачей и финансовый учет. Представьте основные актеры системы и их взаимодействие с основными функциональными блоками. Учтите основные сценарии использования такие как прием пациента выписка рецепта и формирование отчетов для администрирования. Опишите основные шаги и потоки данных в каждом случае использования.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case для информационной системы "Онлайн-магазин одежды" которая будет включать следующие сценарии использования: 1. Регистрация нового пользователя: включает ввод имени адреса контактных данных и создание пароля. 2. Вход в аккаунт: пользователь вводит свои данные для авторизации. 3. Поиск товаров: пользователь может искать товары по названию категории бренду или другим параметрам. 4. Просмотр товара: после поиска товара пользователь может просмотреть детальную информацию о нем включая фотографии описание размер цвет и стоимость. 5. Добавление товара в корзину: пользователь добавляет выбранный товар в корзину для дальнейшего оформления заказа. 6. Оформление заказа: пользователь выбирает способ доставки и оплаты вводит контактные данные и подтверждает заказ. 7. Изменение или удаление товаров из корзины: пользователь может изменять количество товаров или удалять их из корзины. 8. История заказов: пользователь может просматривать историю своих заказов. 9. Личный кабинет пользователя: в личном кабинете пользователь может редактировать свои данные управлять своими заказами просматривать историю заказов и оставлять отзывы о товарах. 10. Обратная связь: пользователь может оставлять отзывы о приобретенных товарах и задавать вопросы службе поддержки. 11. Подписка на рассылку: пользователь подписывается на рассылку новостей и акций магазина.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case для информационной системы "Ветеринарная клиника". Диаграмма должна охватывать все основные сценарии использования системы включая: 1. Регистрацию новых клиентов и животных. 2. Запись на прием к ветеринару. 3. Управление информацией о пациентах (история болезни назначения результаты анализов). 4. Ведение базы данных о животных (идентификационные данные информация о владельце медицинские данные). 5. Формирование отчетов о работе клиники (статистика посещений финансовые отчеты анализ эффективности работы сотрудников). 6. Обеспечение безопасности данных и конфиденциальности информации о клиентах. 7. Возможность удаленного доступа к системе для сотрудников клиники с разных устройств и в разных браузерах. 8. Интеграцию с другими системами и сервисами (например с системами оплаты или электронной почтой). 9. Возможность обновления и расширения функционала системы в будущем.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму DFD. В DFD входят процессы: круги или прямоугольники представляющие операции в системе; потоков данных: стрелки показывающие перемещение данных между процессами хранилищами и внешними сущностями; хранилища данных: параллелограммы отображающие места хранения данных в системе; внешние сущности: прямоугольники представляющие внешние источники/назначения данных для систем</t>
+  </si>
+  <si>
+    <t>Создайте DFD для информационной системы "Онлайн-магазин одежды". Включите в диаграмму функциональные блоки описывающие процессы системы а также укажите стрелки (потоки данных) между этими функциями. Также необходимо указать взаимодействие системы с внешними сущностями</t>
+  </si>
+  <si>
+    <t>Создайте DFD для информационной системы "Ветеринарная клиника". Включите в диаграмму функциональные блоки описывающие процессы системы а также укажите стрелки (потоки данных) между этими функциями. Также необходимо указать взаимодействие системы с внешними сущностями</t>
+  </si>
+  <si>
+    <t>Создайте диаграмму DFD для информационной системы "Онлайн-магазин одежды". Необходимо включить основные функции системы: оформление заказа управление складом обработка платежей учет клиентской информации и взаимодействие с поставщиками. Укажите потоки данных между этими функциями включая информацию о заказах товарах клиентах и финансовых транзакциях. Также укажите на взаимодействие системы с внешними сущностями: клиенты и поставщики и на потоки данных между ними и системой</t>
+  </si>
+  <si>
+    <t>Создайте диаграмму потоков данных (DFD) для информационной системы "Ветеринарная клиника". Включите основные функции системы: запись на прием ведение медицинских карт назначение лечения управление запасами лекарств и оборудования обработка платежей. Опишите потоки данных между этими функциями включая информацию о пациентах медицинских услугах лекарствах финансовых транзакциях и связи с внешними сторонами такими как клиенты и поставщики</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму IDEF0. В IDEF0 входят блоки функций: прямоугольники отображающие функциональные элементы системы; стрелки и потоки: обозначают потоки данных или управления между блоками функций. У каждого функционального блока есть входящие стрелки которые ставят задачу исходящие которые показывают результат деятельности стрелки контроля показывают управляющие ресурсы и стрелки механизмов показывают что необходимо для работы.</t>
+  </si>
+  <si>
+    <t>Сгенерируй IDEF0 для информационной системы "Онлайн-магазин одежды". Опишите основные функции системы укажите иерархию этих функций а также связи между ними чтобы полноценно отразить структуру и функциональность системы. Опишите что необходимо для управления и выполнения каждой функции системы</t>
+  </si>
+  <si>
+    <t>Сгенерируй IDEF0 для информационной системы "Ветеринарная клиника". Опишите основные функции системы укажите иерархию этих функций а также связи между ними чтобы полноценно отразить структуру и функциональность системы. Опишите что необходимо для управления и выполнения каждой функции системы</t>
+  </si>
+  <si>
+    <t>Создайте диаграмму IDEF0 для информационной системы "Онлайн-магазин одежды". Отобразите основные функциональные блоки: управление каталогом товаров обработка заказов обработка платежей управление складом обратная связь с клиентами и обновление информации о товарах. Покажите взаимодействие между этими функциям. Укажите стрелки для выполнения процессов: клиенты менеджеры продавцы. Также укажите стрелки для управления процессами: закон о защите прав потребителей закон купли-продажи</t>
+  </si>
+  <si>
+    <t>Создайте диаграмму IDEF0 для информационной системы "Ветеринарная клиника". Отобразите на диаграмме основные функциональные блоки: запись на прием регистрация пациентов медицинский осмотр диагностическое тестирование планирование лечения и обновление медицинских данных. Отобразите взаимодействие между этими функциями. Укажите необходимые стрелки для выполнения процессов: клиент ветеринар. Также укажите стрелки для управления процессов: протокол медицинского обслуживания санитарные стандарты.</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -562,13 +562,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -664,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -672,15 +672,15 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -693,10 +693,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -709,10 +709,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -725,10 +725,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -741,10 +741,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -752,10 +752,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -763,10 +763,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -775,10 +775,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -786,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -797,10 +797,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
@@ -808,10 +808,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
@@ -819,32 +819,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="171.6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="198" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="132" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -863,10 +863,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -874,21 +874,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -896,10 +896,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -907,10 +907,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -918,10 +918,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -929,10 +929,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -940,10 +940,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -951,10 +951,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -962,10 +962,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -973,10 +973,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -984,10 +984,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -995,10 +995,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1006,10 +1006,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -1050,21 +1050,21 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/list_prompts.xlsx
+++ b/list_prompts.xlsx
@@ -33,12 +33,6 @@
     <t>Сгенерируй диаграмму классов на языке UML. Классы в объектно-ориентированном моделировании представлены с тремя компонентами: в верхней части имя класса. Поля (атрибуты) класса располагаются в центральной части. Методы класса пишутся в нижней части.</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму классов для информационной системы "Онлайн-магазин одежды"</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму классов для информационной системы "Ветеринарная клиника"</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму use-case</t>
   </si>
   <si>
@@ -48,12 +42,6 @@
     <t>Сгенерируй диаграмму use-case на языке UML</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму use-case для информационной системы "Онлайн-магазин одежды"</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму use-case для информационной системы "Ветеринарная клиника"</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму потоков данных</t>
   </si>
   <si>
@@ -63,27 +51,12 @@
     <t>Сгенерируй диаграмму DFD на основе методологии SADT</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму DFD для информационной системы "Онлайн-магазин одежды"</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму DFD для информационной системы "Ветеринарная клиника"</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму "как есть" и "как будет" на основе методологии функциональнного моделирования</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму IDEF0</t>
   </si>
   <si>
     <t>Сгенерируй диаграмму IDEF0 на основе методологии SADT</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму IDEF0 для информационной системы "Онлайн-магазин одежды"</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму IDEF0 для инфомрационной системы "Ветеринарная клиника"</t>
-  </si>
-  <si>
     <t>Номер</t>
   </si>
   <si>
@@ -105,61 +78,88 @@
     <t>IDEF0</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму классов для информационной системы "Онлайн-магазин одежды". 1. Класс - Продукт. Атрибуты: название стоимость размер цвет описание 2. Класс - Заказ. Атрибуты: дата заказа статус общая стоимость 3. Класс - Пользователь. Атрибуты: имя адрес доставки контактная информация 4. Класс - Корзина. Атрибуты: список продуктов сумма заказа 5. Класс - Оплата. Атрибуты: способ оплаты информация о платеже 6. Класс - Доставка. Атрибуты: адрес доставки статус доставки 7. Класс - Категория. Атрибуты: имя категории описание 8. Класс - Производитель. Атрибуты: название страна специализация 9. Класс - Отзывы. Атрибуты: оценка комментарий дата 10. Класс - Акции и скидки. Атрибуты: описание акции сроки условия</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму классов для информационной системы "Ветеринарная клиника". 1. Класс - Животное. Атрибуты: кличка вид возраст владелец. 2. Класс - Врач. Атрибуты: имя специализация график работы 3. Класс - Пациент. Атрибуты: животное дата приема диагноз  4. Класс - Специализация. Атрибуты: название специализации описание 5. Класс - Процедуры и услуги. Атрибуты: название описание стоимость.  6. Класс - Запись. Атрибуты: пациент врач дата вид процедуры. 7. Класс - Лечение. Атрибуты: название лечения рецепт дозировка. 8. Класс - Отзывы и рейтинг. Атрибуты: оценка отзыв дата.</t>
-  </si>
-  <si>
-    <t>Создайте диаграмму классов для информационной системы "Онлайн-магазин одежды". Включите основные классы: продукты заказы пользователи. Покажите связь между классами заказов и пользователями учитывая что каждый пользователь может иметь несколько заказов. Укажите основные атрибуты каждого класса такие как название товара стоимость дата заказа и другие соответствующие атрибуты. Дополнительно укажите что каждый заказ может содержать один или несколько продуктов.</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму классов для информационной системы "Ветеринарная клиника". Создайте диаграмму классов для информационной системы "Ветеринарная клиника". Опишите основные классы: 'Животные' 'Врачи и персонал' 'Услуги и процедуры'. Укажите основные атрибуты и методы для каждого класса. Опишите особенности такие как специфические характеристики каждого класса общие особенности между классами их взаимосвязи а также другие особенности которые следует учесть при генерации диаграммы классов для данной информационной системы.</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму use-case на языке UML. Для отражения use-case на диаграмме используются: рамки системы — прямоугольник с названием в верхней части и эллипсами (прецедентами) внутри. актёр — стилизованный человечек обозначающий набор ролей пользователя. прецедент — эллипс с надписью обозначающий выполняемые системой действия. Имя прецедента связано с непрерывным (атомарным) сценарием — конкретной последовательностью действий иллюстрирующей поведение.</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму use-case для информационной системы "Онлайн-магазин одежды". Система должна включать основные функции такие как просмотр каталога товаров добавление товаров в корзину оформление заказа аутентификация пользователей управление аккаунтом и обработка платежей. Определите основных актеров системы и их взаимодействие с функциональными блоками. Учтите различные сценарии использования такие как поиск товаров оформление заказа как гость или зарегистрированный пользователь отслеживание статуса заказа и возврат товаров. Опишите ключевые шаги и потоки данных в каждом сценарии использования.</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму use-case для информационной системы "Ветеринарная клиника". Система должна поддерживать основные функции такие как запись на прием учет медицинских карт пациентов выписка рецептов администрирование расписания врачей и финансовый учет. Представьте основные актеры системы и их взаимодействие с основными функциональными блоками. Учтите основные сценарии использования такие как прием пациента выписка рецепта и формирование отчетов для администрирования. Опишите основные шаги и потоки данных в каждом случае использования.</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму use-case для информационной системы "Онлайн-магазин одежды" которая будет включать следующие сценарии использования: 1. Регистрация нового пользователя: включает ввод имени адреса контактных данных и создание пароля. 2. Вход в аккаунт: пользователь вводит свои данные для авторизации. 3. Поиск товаров: пользователь может искать товары по названию категории бренду или другим параметрам. 4. Просмотр товара: после поиска товара пользователь может просмотреть детальную информацию о нем включая фотографии описание размер цвет и стоимость. 5. Добавление товара в корзину: пользователь добавляет выбранный товар в корзину для дальнейшего оформления заказа. 6. Оформление заказа: пользователь выбирает способ доставки и оплаты вводит контактные данные и подтверждает заказ. 7. Изменение или удаление товаров из корзины: пользователь может изменять количество товаров или удалять их из корзины. 8. История заказов: пользователь может просматривать историю своих заказов. 9. Личный кабинет пользователя: в личном кабинете пользователь может редактировать свои данные управлять своими заказами просматривать историю заказов и оставлять отзывы о товарах. 10. Обратная связь: пользователь может оставлять отзывы о приобретенных товарах и задавать вопросы службе поддержки. 11. Подписка на рассылку: пользователь подписывается на рассылку новостей и акций магазина.</t>
-  </si>
-  <si>
-    <t>Сгенерируй диаграмму use-case для информационной системы "Ветеринарная клиника". Диаграмма должна охватывать все основные сценарии использования системы включая: 1. Регистрацию новых клиентов и животных. 2. Запись на прием к ветеринару. 3. Управление информацией о пациентах (история болезни назначения результаты анализов). 4. Ведение базы данных о животных (идентификационные данные информация о владельце медицинские данные). 5. Формирование отчетов о работе клиники (статистика посещений финансовые отчеты анализ эффективности работы сотрудников). 6. Обеспечение безопасности данных и конфиденциальности информации о клиентах. 7. Возможность удаленного доступа к системе для сотрудников клиники с разных устройств и в разных браузерах. 8. Интеграцию с другими системами и сервисами (например с системами оплаты или электронной почтой). 9. Возможность обновления и расширения функционала системы в будущем.</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму DFD. В DFD входят процессы: круги или прямоугольники представляющие операции в системе; потоков данных: стрелки показывающие перемещение данных между процессами хранилищами и внешними сущностями; хранилища данных: параллелограммы отображающие места хранения данных в системе; внешние сущности: прямоугольники представляющие внешние источники/назначения данных для систем</t>
   </si>
   <si>
-    <t>Создайте DFD для информационной системы "Онлайн-магазин одежды". Включите в диаграмму функциональные блоки описывающие процессы системы а также укажите стрелки (потоки данных) между этими функциями. Также необходимо указать взаимодействие системы с внешними сущностями</t>
-  </si>
-  <si>
-    <t>Создайте DFD для информационной системы "Ветеринарная клиника". Включите в диаграмму функциональные блоки описывающие процессы системы а также укажите стрелки (потоки данных) между этими функциями. Также необходимо указать взаимодействие системы с внешними сущностями</t>
-  </si>
-  <si>
-    <t>Создайте диаграмму DFD для информационной системы "Онлайн-магазин одежды". Необходимо включить основные функции системы: оформление заказа управление складом обработка платежей учет клиентской информации и взаимодействие с поставщиками. Укажите потоки данных между этими функциями включая информацию о заказах товарах клиентах и финансовых транзакциях. Также укажите на взаимодействие системы с внешними сущностями: клиенты и поставщики и на потоки данных между ними и системой</t>
-  </si>
-  <si>
-    <t>Создайте диаграмму потоков данных (DFD) для информационной системы "Ветеринарная клиника". Включите основные функции системы: запись на прием ведение медицинских карт назначение лечения управление запасами лекарств и оборудования обработка платежей. Опишите потоки данных между этими функциями включая информацию о пациентах медицинских услугах лекарствах финансовых транзакциях и связи с внешними сторонами такими как клиенты и поставщики</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму IDEF0. В IDEF0 входят блоки функций: прямоугольники отображающие функциональные элементы системы; стрелки и потоки: обозначают потоки данных или управления между блоками функций. У каждого функционального блока есть входящие стрелки которые ставят задачу исходящие которые показывают результат деятельности стрелки контроля показывают управляющие ресурсы и стрелки механизмов показывают что необходимо для работы.</t>
   </si>
   <si>
-    <t>Сгенерируй IDEF0 для информационной системы "Онлайн-магазин одежды". Опишите основные функции системы укажите иерархию этих функций а также связи между ними чтобы полноценно отразить структуру и функциональность системы. Опишите что необходимо для управления и выполнения каждой функции системы</t>
-  </si>
-  <si>
-    <t>Сгенерируй IDEF0 для информационной системы "Ветеринарная клиника". Опишите основные функции системы укажите иерархию этих функций а также связи между ними чтобы полноценно отразить структуру и функциональность системы. Опишите что необходимо для управления и выполнения каждой функции системы</t>
-  </si>
-  <si>
-    <t>Создайте диаграмму IDEF0 для информационной системы "Онлайн-магазин одежды". Отобразите основные функциональные блоки: управление каталогом товаров обработка заказов обработка платежей управление складом обратная связь с клиентами и обновление информации о товарах. Покажите взаимодействие между этими функциям. Укажите стрелки для выполнения процессов: клиенты менеджеры продавцы. Также укажите стрелки для управления процессами: закон о защите прав потребителей закон купли-продажи</t>
-  </si>
-  <si>
-    <t>Создайте диаграмму IDEF0 для информационной системы "Ветеринарная клиника". Отобразите на диаграмме основные функциональные блоки: запись на прием регистрация пациентов медицинский осмотр диагностическое тестирование планирование лечения и обновление медицинских данных. Отобразите взаимодействие между этими функциями. Укажите необходимые стрелки для выполнения процессов: клиент ветеринар. Также укажите стрелки для управления процессов: протокол медицинского обслуживания санитарные стандарты.</t>
+    <t>Сгенерируй диаграмму классов для информационной системы Онлайн-магазин одежды</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму классов для информационной системы Ветеринарная клиника</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму классов для информационной системы Онлайн-магазин одежды. 1. Класс - Продукт. Атрибуты: название стоимость размер цвет описание 2. Класс - Заказ. Атрибуты: дата заказа статус общая стоимость 3. Класс - Пользователь. Атрибуты: имя адрес доставки контактная информация 4. Класс - Корзина. Атрибуты: список продуктов сумма заказа 5. Класс - Оплата. Атрибуты: способ оплаты информация о платеже 6. Класс - Доставка. Атрибуты: адрес доставки статус доставки 7. Класс - Категория. Атрибуты: имя категории описание 8. Класс - Производитель. Атрибуты: название страна специализация 9. Класс - Отзывы. Атрибуты: оценка комментарий дата 10. Класс - Акции и скидки. Атрибуты: описание акции сроки условия</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму классов для информационной системы Ветеринарная клиника. 1. Класс - Животное. Атрибуты: кличка вид возраст владелец. 2. Класс - Врач. Атрибуты: имя специализация график работы 3. Класс - Пациент. Атрибуты: животное дата приема диагноз  4. Класс - Специализация. Атрибуты: название специализации описание 5. Класс - Процедуры и услуги. Атрибуты: название описание стоимость.  6. Класс - Запись. Атрибуты: пациент врач дата вид процедуры. 7. Класс - Лечение. Атрибуты: название лечения рецепт дозировка. 8. Класс - Отзывы и рейтинг. Атрибуты: оценка отзыв дата.</t>
+  </si>
+  <si>
+    <t>Создайте диаграмму классов для информационной системы Онлайн-магазин одежды. Включите основные классы: продукты заказы пользователи. Покажите связь между классами заказов и пользователями учитывая что каждый пользователь может иметь несколько заказов. Укажите основные атрибуты каждого класса такие как название товара стоимость дата заказа и другие соответствующие атрибуты. Дополнительно укажите что каждый заказ может содержать один или несколько продуктов.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму классов для информационной системы Ветеринарная клиника. Создайте диаграмму классов для информационной системы Ветеринарная клиника. Опишите основные классы: 'Животные' 'Врачи и персонал' 'Услуги и процедуры'. Укажите основные атрибуты и методы для каждого класса. Опишите особенности такие как специфические характеристики каждого класса общие особенности между классами их взаимосвязи а также другие особенности которые следует учесть при генерации диаграммы классов для данной информационной системы.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case для информационной системы Онлайн-магазин одежды</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case для информационной системы Ветеринарная клиника</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case для информационной системы Онлайн-магазин одежды. Система должна включать основные функции такие как просмотр каталога товаров добавление товаров в корзину оформление заказа аутентификация пользователей управление аккаунтом и обработка платежей. Определите основных актеров системы и их взаимодействие с функциональными блоками. Учтите различные сценарии использования такие как поиск товаров оформление заказа как гость или зарегистрированный пользователь отслеживание статуса заказа и возврат товаров. Опишите ключевые шаги и потоки данных в каждом сценарии использования.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case для информационной системы Ветеринарная клиника. Система должна поддерживать основные функции такие как запись на прием учет медицинских карт пациентов выписка рецептов администрирование расписания врачей и финансовый учет. Представьте основные актеры системы и их взаимодействие с основными функциональными блоками. Учтите основные сценарии использования такие как прием пациента выписка рецепта и формирование отчетов для администрирования. Опишите основные шаги и потоки данных в каждом случае использования.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case для информационной системы Онлайн-магазин одежды которая будет включать следующие сценарии использования: 1. Регистрация нового пользователя: включает ввод имени адреса контактных данных и создание пароля. 2. Вход в аккаунт: пользователь вводит свои данные для авторизации. 3. Поиск товаров: пользователь может искать товары по названию категории бренду или другим параметрам. 4. Просмотр товара: после поиска товара пользователь может просмотреть детальную информацию о нем включая фотографии описание размер цвет и стоимость. 5. Добавление товара в корзину: пользователь добавляет выбранный товар в корзину для дальнейшего оформления заказа. 6. Оформление заказа: пользователь выбирает способ доставки и оплаты вводит контактные данные и подтверждает заказ. 7. Изменение или удаление товаров из корзины: пользователь может изменять количество товаров или удалять их из корзины. 8. История заказов: пользователь может просматривать историю своих заказов. 9. Личный кабинет пользователя: в личном кабинете пользователь может редактировать свои данные управлять своими заказами просматривать историю заказов и оставлять отзывы о товарах. 10. Обратная связь: пользователь может оставлять отзывы о приобретенных товарах и задавать вопросы службе поддержки. 11. Подписка на рассылку: пользователь подписывается на рассылку новостей и акций магазина.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму use-case для информационной системы Ветеринарная клиника. Диаграмма должна охватывать все основные сценарии использования системы включая: 1. Регистрацию новых клиентов и животных. 2. Запись на прием к ветеринару. 3. Управление информацией о пациентах (история болезни назначения результаты анализов). 4. Ведение базы данных о животных (идентификационные данные информация о владельце медицинские данные). 5. Формирование отчетов о работе клиники (статистика посещений финансовые отчеты анализ эффективности работы сотрудников). 6. Обеспечение безопасности данных и конфиденциальности информации о клиентах. 7. Возможность удаленного доступа к системе для сотрудников клиники с разных устройств и в разных браузерах. 8. Интеграцию с другими системами и сервисами (например с системами оплаты или электронной почтой). 9. Возможность обновления и расширения функционала системы в будущем.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму DFD для информационной системы Онлайн-магазин одежды</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму DFD для информационной системы Ветеринарная клиника</t>
+  </si>
+  <si>
+    <t>Создайте DFD для информационной системы Онлайн-магазин одежды. Включите в диаграмму функциональные блоки описывающие процессы системы а также укажите стрелки (потоки данных) между этими функциями. Также необходимо указать взаимодействие системы с внешними сущностями</t>
+  </si>
+  <si>
+    <t>Создайте DFD для информационной системы Ветеринарная клиника. Включите в диаграмму функциональные блоки описывающие процессы системы а также укажите стрелки (потоки данных) между этими функциями. Также необходимо указать взаимодействие системы с внешними сущностями</t>
+  </si>
+  <si>
+    <t>Создайте диаграмму DFD для информационной системы Онлайн-магазин одежды. Необходимо включить основные функции системы: оформление заказа управление складом обработка платежей учет клиентской информации и взаимодействие с поставщиками. Укажите потоки данных между этими функциями включая информацию о заказах товарах клиентах и финансовых транзакциях. Также укажите на взаимодействие системы с внешними сущностями: клиенты и поставщики и на потоки данных между ними и системой</t>
+  </si>
+  <si>
+    <t>Создайте диаграмму потоков данных (DFD) для информационной системы Ветеринарная клиника. Включите основные функции системы: запись на прием ведение медицинских карт назначение лечения управление запасами лекарств и оборудования обработка платежей. Опишите потоки данных между этими функциями включая информацию о пациентах медицинских услугах лекарствах финансовых транзакциях и связи с внешними сторонами такими как клиенты и поставщики</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму как есть и как будет на основе методологии функциональнного моделирования</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму IDEF0 для информационной системы Онлайн-магазин одежды</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму IDEF0 для инфомрационной системы Ветеринарная клиника</t>
+  </si>
+  <si>
+    <t>Сгенерируй IDEF0 для информационной системы Онлайн-магазин одежды. Опишите основные функции системы укажите иерархию этих функций а также связи между ними чтобы полноценно отразить структуру и функциональность системы. Опишите что необходимо для управления и выполнения каждой функции системы</t>
+  </si>
+  <si>
+    <t>Сгенерируй IDEF0 для информационной системы Ветеринарная клиника. Опишите основные функции системы укажите иерархию этих функций а также связи между ними чтобы полноценно отразить структуру и функциональность системы. Опишите что необходимо для управления и выполнения каждой функции системы</t>
+  </si>
+  <si>
+    <t>Создайте диаграмму IDEF0 для информационной системы Онлайн-магазин одежды. Отобразите основные функциональные блоки: управление каталогом товаров обработка заказов обработка платежей управление складом обратная связь с клиентами и обновление информации о товарах. Покажите взаимодействие между этими функциям. Укажите стрелки для выполнения процессов: клиенты менеджеры продавцы. Также укажите стрелки для управления процессами: закон о защите прав потребителей закон купли-продажи</t>
+  </si>
+  <si>
+    <t>Создайте диаграмму IDEF0 для информационной системы Ветеринарная клиника. Отобразите на диаграмме основные функциональные блоки: запись на прием регистрация пациентов медицинский осмотр диагностическое тестирование планирование лечения и обновление медицинских данных. Отобразите взаимодействие между этими функциями. Укажите необходимые стрелки для выполнения процессов: клиент ветеринар. Также укажите стрелки для управления процессов: протокол медицинского обслуживания санитарные стандарты.</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -562,13 +562,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -645,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -661,10 +661,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -677,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -693,10 +693,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -709,10 +709,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -725,10 +725,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -741,10 +741,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -752,10 +752,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -763,10 +763,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -775,10 +775,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -786,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -797,10 +797,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
@@ -808,10 +808,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
@@ -819,21 +819,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="198" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="132" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -863,10 +863,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -874,10 +874,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -885,10 +885,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -896,10 +896,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -907,10 +907,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -918,10 +918,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -929,10 +929,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -940,10 +940,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -951,10 +951,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -962,10 +962,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -973,10 +973,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -984,10 +984,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -995,10 +995,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1006,10 +1006,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/list_prompts.xlsx
+++ b/list_prompts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasto\Desktop\учёба\ТИВ\task\tiv_gen_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comp\Desktop\Магистратура\ТИВ\Git Тив\tiv_gen_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1431BEAC-53EC-481B-BA92-EC2496988888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11436" windowHeight="9324"/>
+    <workbookView xWindow="8505" yWindow="2955" windowWidth="15405" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -102,9 +103,6 @@
     <t>Создайте диаграмму классов для информационной системы Онлайн-магазин одежды. Включите основные классы: продукты заказы пользователи. Покажите связь между классами заказов и пользователями учитывая что каждый пользователь может иметь несколько заказов. Укажите основные атрибуты каждого класса такие как название товара стоимость дата заказа и другие соответствующие атрибуты. Дополнительно укажите что каждый заказ может содержать один или несколько продуктов.</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму классов для информационной системы Ветеринарная клиника. Создайте диаграмму классов для информационной системы Ветеринарная клиника. Опишите основные классы: 'Животные' 'Врачи и персонал' 'Услуги и процедуры'. Укажите основные атрибуты и методы для каждого класса. Опишите особенности такие как специфические характеристики каждого класса общие особенности между классами их взаимосвязи а также другие особенности которые следует учесть при генерации диаграммы классов для данной информационной системы.</t>
-  </si>
-  <si>
     <t>Сгенерируй диаграмму use-case для информационной системы Онлайн-магазин одежды</t>
   </si>
   <si>
@@ -160,12 +158,15 @@
   </si>
   <si>
     <t>Создайте диаграмму IDEF0 для информационной системы Ветеринарная клиника. Отобразите на диаграмме основные функциональные блоки: запись на прием регистрация пациентов медицинский осмотр диагностическое тестирование планирование лечения и обновление медицинских данных. Отобразите взаимодействие между этими функциями. Укажите необходимые стрелки для выполнения процессов: клиент ветеринар. Также укажите стрелки для управления процессов: протокол медицинского обслуживания санитарные стандарты.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму классов для информационной системы Ветеринарная клиника. Опишите основные классы: 'Животные' 'Врачи и персонал' 'Услуги и процедуры'. Укажите основные атрибуты и методы для каждого класса. Опишите особенности такие как специфические характеристики каждого класса общие особенности между классами их взаимосвязи а также другие особенности которые следует учесть при генерации диаграммы классов для данной информационной системы.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -543,24 +544,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -576,7 +577,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -592,7 +593,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -608,7 +609,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -624,7 +625,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -640,7 +641,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -656,7 +657,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -672,7 +673,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -688,7 +689,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -704,7 +705,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -720,12 +721,12 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>15</v>
@@ -736,7 +737,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -747,7 +748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -758,7 +759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -770,7 +771,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -781,73 +782,73 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -858,7 +859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -869,7 +870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -880,7 +881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -891,84 +892,84 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -979,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -990,7 +991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -1001,67 +1002,67 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>18</v>

--- a/list_prompts.xlsx
+++ b/list_prompts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comp\Desktop\Магистратура\ТИВ\Git Тив\tiv_gen_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comp\Desktop\Магистратура\ТИВ\Git new\tiv_gen_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1431BEAC-53EC-481B-BA92-EC2496988888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F8EED-6158-4A52-B5E8-B8BB44F23B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="2955" windowWidth="15405" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>Сгенерируй диаграмму IDEF0 для информационной системы Онлайн-магазин одежды</t>
   </si>
   <si>
-    <t>Сгенерируй диаграмму IDEF0 для инфомрационной системы Ветеринарная клиника</t>
-  </si>
-  <si>
     <t>Сгенерируй IDEF0 для информационной системы Онлайн-магазин одежды. Опишите основные функции системы укажите иерархию этих функций а также связи между ними чтобы полноценно отразить структуру и функциональность системы. Опишите что необходимо для управления и выполнения каждой функции системы</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Сгенерируй диаграмму классов для информационной системы Ветеринарная клиника. Опишите основные классы: 'Животные' 'Врачи и персонал' 'Услуги и процедуры'. Укажите основные атрибуты и методы для каждого класса. Опишите особенности такие как специфические характеристики каждого класса общие особенности между классами их взаимосвязи а также другие особенности которые следует учесть при генерации диаграммы классов для данной информационной системы.</t>
+  </si>
+  <si>
+    <t>Сгенерируй диаграмму IDEF0 для информационной системы Ветеринарная клиника</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>15</v>
@@ -1018,7 +1018,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>18</v>
@@ -1029,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>18</v>
@@ -1040,7 +1040,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>18</v>
@@ -1051,7 +1051,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>18</v>
@@ -1062,7 +1062,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>18</v>
